--- a/content/species/data/sp_mammals_table2.xlsx
+++ b/content/species/data/sp_mammals_table2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanbiorgza.sharepoint.com/sites/RedListsquad/Shared Documents/General/NBA 2025/Quarto prep/Mammals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{14DC4FDF-51C3-40CF-B9BB-4EC02F74B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A8033C-591A-4C99-B73A-975F38444FE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D99AE-609E-45FD-B626-8FB6B6FF261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{44E7ACED-7934-49BE-A219-5D929C6D55C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44E7ACED-7934-49BE-A219-5D929C6D55C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxa increase status-Table" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Reduction in population numbers due to climate change and habitat destruction (overgrazing). </t>
   </si>
   <si>
-    <t>African shaggy rat (previously African Marsh Rat) (Dasymys incomtus)* </t>
-  </si>
-  <si>
     <t>Population declines due to land transformation and climate change. </t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>There are &lt;1,000 mature individuals; a limited area of available habitat &lt;2,000 km2 AOO and ongoing and projected decline in habitat due to agricultural expansion, human settlement sprawl, mining, overgrazing and climate change. </t>
+  </si>
+  <si>
+    <t>African shaggy rat (previously African marsh rat) (Dasymys incomtus)* </t>
   </si>
 </sst>
 </file>
@@ -527,23 +527,23 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.15625" customWidth="1"/>
-    <col min="2" max="2" width="21.1015625" customWidth="1"/>
-    <col min="3" max="3" width="26.41796875" customWidth="1"/>
-    <col min="4" max="4" width="41.89453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="87.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -577,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -591,10 +591,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -650,9 +650,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -661,12 +661,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -675,12 +675,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
@@ -689,12 +689,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -712,15 +712,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c860c8d8cea428af55d2deb18db3c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1915556badb0c1501ee51a52d85f263" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -998,6 +989,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1012,14 +1012,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FBBEF9-B2BC-48E8-9185-4ABCF285E313}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADCCD51B-3148-4820-B203-0E76E22C8F3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1039,6 +1031,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5FBBEF9-B2BC-48E8-9185-4ABCF285E313}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{630B2188-0AC4-450C-9DC5-CE0A92087913}">
   <ds:schemaRefs>
